--- a/multiuser_legible_movement/data/eval/simulation_results_c.xlsx
+++ b/multiuser_legible_movement/data/eval/simulation_results_c.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Desktop\My_Documents\Instituto.Superior.Tecnico\PhD\movement_communication\multiuser_legible_movement\data\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF393A73-4A52-48EA-B048-7ADCB844284E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF033E1D-0411-44E5-9C53-6DA0C6973DE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,12 +49,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,11 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -154,6 +156,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,12 +480,12 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.6328125" style="7" customWidth="1"/>
+    <col min="1" max="6" width="10.6328125" style="6" customWidth="1"/>
     <col min="7" max="1026" width="11.54296875"/>
   </cols>
   <sheetData>
@@ -500,460 +508,428 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.86697999999999997</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.85082000000000002</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0.48324</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.86248999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.84131999999999996</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.93650999999999995</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.47534999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.93454000000000004</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.58933000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.88800000000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.56405000000000005</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.31217</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.51597000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.46814</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.75824999999999998</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.75690000000000002</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.26634000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.59155000000000002</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.84860000000000002</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.93481999999999998</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>3.1859999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.51256999999999997</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.93413999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.52407999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.53561999999999999</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.56391000000000002</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.41077999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.45613999999999999</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.53420999999999996</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.49643999999999999</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.30847000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.42586000000000002</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.64422999999999997</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.91554000000000002</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>5.2560000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.64746999999999999</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0.64702000000000004</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>3.3550000000000003E-2</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>0.8125</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.50982000000000005</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.60848999999999998</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.48185</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.39118000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="8">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>0.81781000000000004</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.65822000000000003</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>0.93333999999999995</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>0.93333999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0.36397000000000002</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0.36358000000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>0.45865</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.33389999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.36397000000000002</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.36358000000000001</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.33389999999999997</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.45865</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.51524999999999999</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0.46179999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>0.57530000000000003</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>0.57530000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
+        <v>0.48004000000000002</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.77564999999999995</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3.1940000000000003E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.43541999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.52480000000000004</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.1270000000000001E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.40403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.90922999999999998</v>
+      </c>
+      <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="8">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4" t="s">
+      <c r="F20" s="3">
+        <v>0.50268999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.63802999999999999</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.27231</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.31988</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.44738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
+      <c r="B29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
